--- a/Team-Data/2011-12/3-10-2011-12.xlsx
+++ b/Team-Data/2011-12/3-10-2011-12.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>1.7</v>
       </c>
       <c r="AD2" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AE2" t="n">
         <v>8</v>
@@ -762,7 +829,7 @@
         <v>19</v>
       </c>
       <c r="AJ2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK2" t="n">
         <v>16</v>
@@ -771,7 +838,7 @@
         <v>7</v>
       </c>
       <c r="AM2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AN2" t="n">
         <v>6</v>
@@ -780,7 +847,7 @@
         <v>29</v>
       </c>
       <c r="AP2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ2" t="n">
         <v>26</v>
@@ -801,7 +868,7 @@
         <v>8</v>
       </c>
       <c r="AW2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX2" t="n">
         <v>17</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-10-2011-12</t>
+          <t>2012-03-10</t>
         </is>
       </c>
     </row>
@@ -926,19 +993,19 @@
         <v>1.2</v>
       </c>
       <c r="AD3" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AE3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF3" t="n">
         <v>12</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI3" t="n">
         <v>22</v>
@@ -947,7 +1014,7 @@
         <v>30</v>
       </c>
       <c r="AK3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AL3" t="n">
         <v>21</v>
@@ -959,19 +1026,19 @@
         <v>7</v>
       </c>
       <c r="AO3" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AP3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AQ3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR3" t="n">
         <v>30</v>
       </c>
       <c r="AS3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AT3" t="n">
         <v>30</v>
@@ -980,13 +1047,13 @@
         <v>3</v>
       </c>
       <c r="AV3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AW3" t="n">
         <v>25</v>
       </c>
       <c r="AX3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY3" t="n">
         <v>12</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-10-2011-12</t>
+          <t>2012-03-10</t>
         </is>
       </c>
     </row>
@@ -1030,16 +1097,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
       </c>
       <c r="F4" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G4" t="n">
-        <v>0.128</v>
+        <v>0.132</v>
       </c>
       <c r="H4" t="n">
         <v>48.1</v>
@@ -1048,67 +1115,67 @@
         <v>33.4</v>
       </c>
       <c r="J4" t="n">
-        <v>80.7</v>
+        <v>80.5</v>
       </c>
       <c r="K4" t="n">
         <v>0.414</v>
       </c>
       <c r="L4" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="M4" t="n">
         <v>13.8</v>
       </c>
       <c r="N4" t="n">
-        <v>0.305</v>
+        <v>0.3</v>
       </c>
       <c r="O4" t="n">
         <v>16</v>
       </c>
       <c r="P4" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.734</v>
+        <v>0.731</v>
       </c>
       <c r="R4" t="n">
-        <v>10.6</v>
+        <v>10.5</v>
       </c>
       <c r="S4" t="n">
-        <v>29.3</v>
+        <v>29.4</v>
       </c>
       <c r="T4" t="n">
-        <v>39.9</v>
+        <v>40</v>
       </c>
       <c r="U4" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="V4" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="W4" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="X4" t="n">
         <v>6</v>
       </c>
-      <c r="X4" t="n">
-        <v>5.9</v>
-      </c>
       <c r="Y4" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="Z4" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AA4" t="n">
         <v>20</v>
       </c>
       <c r="AB4" t="n">
-        <v>87.09999999999999</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="AC4" t="n">
-        <v>-13.6</v>
+        <v>-13.3</v>
       </c>
       <c r="AD4" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AE4" t="n">
         <v>30</v>
@@ -1138,19 +1205,19 @@
         <v>26</v>
       </c>
       <c r="AN4" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AO4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AP4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AQ4" t="n">
         <v>23</v>
       </c>
       <c r="AR4" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AS4" t="n">
         <v>27</v>
@@ -1159,25 +1226,25 @@
         <v>28</v>
       </c>
       <c r="AU4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AV4" t="n">
         <v>10</v>
       </c>
       <c r="AW4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AX4" t="n">
         <v>3</v>
       </c>
       <c r="AY4" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AZ4" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA4" t="n">
         <v>14</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>15</v>
       </c>
       <c r="BB4" t="n">
         <v>30</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-10-2011-12</t>
+          <t>2012-03-10</t>
         </is>
       </c>
     </row>
@@ -1212,34 +1279,34 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E5" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F5" t="n">
         <v>9</v>
       </c>
       <c r="G5" t="n">
-        <v>0.791</v>
+        <v>0.786</v>
       </c>
       <c r="H5" t="n">
         <v>48</v>
       </c>
       <c r="I5" t="n">
-        <v>38</v>
+        <v>37.9</v>
       </c>
       <c r="J5" t="n">
-        <v>82.3</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="K5" t="n">
-        <v>0.462</v>
+        <v>0.46</v>
       </c>
       <c r="L5" t="n">
         <v>6.1</v>
       </c>
       <c r="M5" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="N5" t="n">
         <v>0.382</v>
@@ -1248,7 +1315,7 @@
         <v>15.7</v>
       </c>
       <c r="P5" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="Q5" t="n">
         <v>0.727</v>
@@ -1257,13 +1324,13 @@
         <v>13.4</v>
       </c>
       <c r="S5" t="n">
-        <v>32.3</v>
+        <v>32.4</v>
       </c>
       <c r="T5" t="n">
-        <v>45.7</v>
+        <v>45.8</v>
       </c>
       <c r="U5" t="n">
-        <v>23.5</v>
+        <v>23.3</v>
       </c>
       <c r="V5" t="n">
         <v>14</v>
@@ -1281,13 +1348,13 @@
         <v>17.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="AB5" t="n">
-        <v>98</v>
+        <v>97.7</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.300000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
@@ -1308,10 +1375,10 @@
         <v>3</v>
       </c>
       <c r="AJ5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL5" t="n">
         <v>18</v>
@@ -1341,16 +1408,16 @@
         <v>2</v>
       </c>
       <c r="AU5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV5" t="n">
         <v>4</v>
       </c>
       <c r="AW5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AX5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY5" t="n">
         <v>16</v>
@@ -1359,10 +1426,10 @@
         <v>2</v>
       </c>
       <c r="BA5" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BB5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BC5" t="n">
         <v>1</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-10-2011-12</t>
+          <t>2012-03-10</t>
         </is>
       </c>
     </row>
@@ -1472,10 +1539,10 @@
         <v>-4.1</v>
       </c>
       <c r="AD6" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AE6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF6" t="n">
         <v>22</v>
@@ -1493,7 +1560,7 @@
         <v>15</v>
       </c>
       <c r="AK6" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL6" t="n">
         <v>9</v>
@@ -1523,10 +1590,10 @@
         <v>11</v>
       </c>
       <c r="AU6" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV6" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AW6" t="n">
         <v>15</v>
@@ -1544,7 +1611,7 @@
         <v>6</v>
       </c>
       <c r="BB6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BC6" t="n">
         <v>24</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-10-2011-12</t>
+          <t>2012-03-10</t>
         </is>
       </c>
     </row>
@@ -1576,28 +1643,28 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E7" t="n">
         <v>23</v>
       </c>
       <c r="F7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G7" t="n">
-        <v>0.535</v>
+        <v>0.548</v>
       </c>
       <c r="H7" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="I7" t="n">
-        <v>35.6</v>
+        <v>35.7</v>
       </c>
       <c r="J7" t="n">
-        <v>81.7</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K7" t="n">
-        <v>0.435</v>
+        <v>0.436</v>
       </c>
       <c r="L7" t="n">
         <v>7.3</v>
@@ -1606,52 +1673,52 @@
         <v>22.3</v>
       </c>
       <c r="N7" t="n">
-        <v>0.329</v>
+        <v>0.326</v>
       </c>
       <c r="O7" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="P7" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.752</v>
+        <v>0.75</v>
       </c>
       <c r="R7" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="S7" t="n">
-        <v>32.2</v>
+        <v>32.3</v>
       </c>
       <c r="T7" t="n">
         <v>43</v>
       </c>
       <c r="U7" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="V7" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="W7" t="n">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="X7" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Z7" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="AA7" t="n">
         <v>18.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>94</v>
+        <v>94.2</v>
       </c>
       <c r="AC7" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
@@ -1660,22 +1727,22 @@
         <v>8</v>
       </c>
       <c r="AF7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI7" t="n">
         <v>18</v>
       </c>
       <c r="AJ7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL7" t="n">
         <v>6</v>
@@ -1687,19 +1754,19 @@
         <v>21</v>
       </c>
       <c r="AO7" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AP7" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AQ7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR7" t="n">
         <v>20</v>
       </c>
       <c r="AS7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AT7" t="n">
         <v>10</v>
@@ -1708,13 +1775,13 @@
         <v>10</v>
       </c>
       <c r="AV7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AW7" t="n">
         <v>3</v>
       </c>
       <c r="AX7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY7" t="n">
         <v>5</v>
@@ -1726,10 +1793,10 @@
         <v>26</v>
       </c>
       <c r="BB7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BC7" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-10-2011-12</t>
+          <t>2012-03-10</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>2.8</v>
       </c>
       <c r="AD8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE8" t="n">
         <v>8</v>
@@ -1854,7 +1921,7 @@
         <v>2</v>
       </c>
       <c r="AJ8" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AK8" t="n">
         <v>3</v>
@@ -1884,13 +1951,13 @@
         <v>4</v>
       </c>
       <c r="AT8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AU8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AV8" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW8" t="n">
         <v>5</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-10-2011-12</t>
+          <t>2012-03-10</t>
         </is>
       </c>
     </row>
@@ -1940,34 +2007,34 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9" t="n">
         <v>26</v>
       </c>
       <c r="G9" t="n">
-        <v>0.366</v>
+        <v>0.35</v>
       </c>
       <c r="H9" t="n">
-        <v>48.2</v>
+        <v>48.3</v>
       </c>
       <c r="I9" t="n">
-        <v>34.1</v>
+        <v>34</v>
       </c>
       <c r="J9" t="n">
-        <v>79.2</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="K9" t="n">
-        <v>0.43</v>
+        <v>0.428</v>
       </c>
       <c r="L9" t="n">
         <v>4.1</v>
       </c>
       <c r="M9" t="n">
-        <v>12.7</v>
+        <v>12.5</v>
       </c>
       <c r="N9" t="n">
         <v>0.324</v>
@@ -1979,13 +2046,13 @@
         <v>22.1</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.769</v>
+        <v>0.768</v>
       </c>
       <c r="R9" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="S9" t="n">
-        <v>28.1</v>
+        <v>28</v>
       </c>
       <c r="T9" t="n">
         <v>40.3</v>
@@ -1994,34 +2061,34 @@
         <v>18.6</v>
       </c>
       <c r="V9" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="W9" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="X9" t="n">
         <v>3.8</v>
       </c>
       <c r="Y9" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Z9" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="AA9" t="n">
         <v>19.5</v>
       </c>
       <c r="AB9" t="n">
-        <v>89.3</v>
+        <v>89</v>
       </c>
       <c r="AC9" t="n">
-        <v>-5.8</v>
+        <v>-6.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AE9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AF9" t="n">
         <v>24</v>
@@ -2030,13 +2097,13 @@
         <v>24</v>
       </c>
       <c r="AH9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI9" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK9" t="n">
         <v>24</v>
@@ -2051,16 +2118,16 @@
         <v>22</v>
       </c>
       <c r="AO9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ9" t="n">
         <v>9</v>
       </c>
       <c r="AR9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AS9" t="n">
         <v>29</v>
@@ -2075,7 +2142,7 @@
         <v>28</v>
       </c>
       <c r="AW9" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AX9" t="n">
         <v>30</v>
@@ -2084,7 +2151,7 @@
         <v>23</v>
       </c>
       <c r="AZ9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA9" t="n">
         <v>18</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-10-2011-12</t>
+          <t>2012-03-10</t>
         </is>
       </c>
     </row>
@@ -2122,67 +2189,67 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F10" t="n">
         <v>21</v>
       </c>
       <c r="G10" t="n">
-        <v>0.432</v>
+        <v>0.417</v>
       </c>
       <c r="H10" t="n">
         <v>48.3</v>
       </c>
       <c r="I10" t="n">
-        <v>37.2</v>
+        <v>37.1</v>
       </c>
       <c r="J10" t="n">
-        <v>81.8</v>
+        <v>82</v>
       </c>
       <c r="K10" t="n">
-        <v>0.454</v>
+        <v>0.452</v>
       </c>
       <c r="L10" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="M10" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="N10" t="n">
         <v>0.385</v>
       </c>
       <c r="O10" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="P10" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.756</v>
+        <v>0.753</v>
       </c>
       <c r="R10" t="n">
-        <v>10.5</v>
+        <v>10.8</v>
       </c>
       <c r="S10" t="n">
-        <v>29.9</v>
+        <v>29.6</v>
       </c>
       <c r="T10" t="n">
-        <v>40.4</v>
+        <v>40.3</v>
       </c>
       <c r="U10" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="V10" t="n">
         <v>14.3</v>
       </c>
       <c r="W10" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X10" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Y10" t="n">
         <v>4.2</v>
@@ -2194,34 +2261,34 @@
         <v>17.8</v>
       </c>
       <c r="AB10" t="n">
-        <v>97.8</v>
+        <v>97.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>-1.9</v>
+        <v>-2.6</v>
       </c>
       <c r="AD10" t="n">
         <v>30</v>
       </c>
       <c r="AE10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AF10" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AG10" t="n">
         <v>21</v>
       </c>
       <c r="AH10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK10" t="n">
         <v>8</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>6</v>
       </c>
       <c r="AL10" t="n">
         <v>4</v>
@@ -2233,7 +2300,7 @@
         <v>4</v>
       </c>
       <c r="AO10" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AP10" t="n">
         <v>26</v>
@@ -2242,10 +2309,10 @@
         <v>14</v>
       </c>
       <c r="AR10" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AS10" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AT10" t="n">
         <v>26</v>
@@ -2254,13 +2321,13 @@
         <v>6</v>
       </c>
       <c r="AV10" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AW10" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AX10" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AY10" t="n">
         <v>2</v>
@@ -2269,13 +2336,13 @@
         <v>29</v>
       </c>
       <c r="BA10" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BB10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BC10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-10-2011-12</t>
+          <t>2012-03-10</t>
         </is>
       </c>
     </row>
@@ -2304,85 +2371,85 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F11" t="n">
         <v>19</v>
       </c>
       <c r="G11" t="n">
-        <v>0.537</v>
+        <v>0.525</v>
       </c>
       <c r="H11" t="n">
         <v>48.6</v>
       </c>
       <c r="I11" t="n">
-        <v>37.2</v>
+        <v>37</v>
       </c>
       <c r="J11" t="n">
         <v>82.90000000000001</v>
       </c>
       <c r="K11" t="n">
-        <v>0.449</v>
+        <v>0.446</v>
       </c>
       <c r="L11" t="n">
         <v>7</v>
       </c>
       <c r="M11" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="N11" t="n">
-        <v>0.355</v>
+        <v>0.351</v>
       </c>
       <c r="O11" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="P11" t="n">
-        <v>20.2</v>
+        <v>20.4</v>
       </c>
       <c r="Q11" t="n">
         <v>0.791</v>
       </c>
       <c r="R11" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="S11" t="n">
-        <v>30.4</v>
+        <v>30.6</v>
       </c>
       <c r="T11" t="n">
-        <v>41.9</v>
+        <v>42.1</v>
       </c>
       <c r="U11" t="n">
-        <v>20.4</v>
+        <v>20.2</v>
       </c>
       <c r="V11" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W11" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="X11" t="n">
         <v>4.8</v>
       </c>
       <c r="Y11" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Z11" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AA11" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="AB11" t="n">
-        <v>97.5</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AD11" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AE11" t="n">
         <v>14</v>
@@ -2391,19 +2458,19 @@
         <v>14</v>
       </c>
       <c r="AG11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH11" t="n">
         <v>4</v>
       </c>
       <c r="AI11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ11" t="n">
         <v>5</v>
       </c>
       <c r="AK11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL11" t="n">
         <v>8</v>
@@ -2415,10 +2482,10 @@
         <v>12</v>
       </c>
       <c r="AO11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP11" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AQ11" t="n">
         <v>3</v>
@@ -2427,13 +2494,13 @@
         <v>15</v>
       </c>
       <c r="AS11" t="n">
+        <v>18</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>16</v>
+      </c>
+      <c r="AU11" t="n">
         <v>19</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>18</v>
       </c>
       <c r="AV11" t="n">
         <v>16</v>
@@ -2445,16 +2512,16 @@
         <v>21</v>
       </c>
       <c r="AY11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ11" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BA11" t="n">
         <v>24</v>
       </c>
       <c r="BB11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BC11" t="n">
         <v>18</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-10-2011-12</t>
+          <t>2012-03-10</t>
         </is>
       </c>
     </row>
@@ -2486,55 +2553,55 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E12" t="n">
         <v>23</v>
       </c>
       <c r="F12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G12" t="n">
-        <v>0.605</v>
+        <v>0.622</v>
       </c>
       <c r="H12" t="n">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="I12" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="J12" t="n">
-        <v>81</v>
+        <v>80.8</v>
       </c>
       <c r="K12" t="n">
-        <v>0.426</v>
+        <v>0.428</v>
       </c>
       <c r="L12" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="M12" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="N12" t="n">
-        <v>0.365</v>
+        <v>0.363</v>
       </c>
       <c r="O12" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="P12" t="n">
         <v>26.4</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.773</v>
+        <v>0.775</v>
       </c>
       <c r="R12" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="S12" t="n">
-        <v>31.2</v>
+        <v>31.4</v>
       </c>
       <c r="T12" t="n">
-        <v>43.8</v>
+        <v>43.9</v>
       </c>
       <c r="U12" t="n">
         <v>17.9</v>
@@ -2549,22 +2616,22 @@
         <v>5.6</v>
       </c>
       <c r="Y12" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="Z12" t="n">
-        <v>21.7</v>
+        <v>21.5</v>
       </c>
       <c r="AA12" t="n">
         <v>21.7</v>
       </c>
       <c r="AB12" t="n">
-        <v>95.09999999999999</v>
+        <v>95.2</v>
       </c>
       <c r="AC12" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="AD12" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AE12" t="n">
         <v>8</v>
@@ -2576,16 +2643,16 @@
         <v>6</v>
       </c>
       <c r="AH12" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="AI12" t="n">
+        <v>24</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>20</v>
+      </c>
+      <c r="AK12" t="n">
         <v>25</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>26</v>
       </c>
       <c r="AL12" t="n">
         <v>20</v>
@@ -2615,13 +2682,13 @@
         <v>4</v>
       </c>
       <c r="AU12" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AV12" t="n">
         <v>11</v>
       </c>
       <c r="AW12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX12" t="n">
         <v>6</v>
@@ -2630,10 +2697,10 @@
         <v>27</v>
       </c>
       <c r="AZ12" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BA12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB12" t="n">
         <v>15</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-10-2011-12</t>
+          <t>2012-03-10</t>
         </is>
       </c>
     </row>
@@ -2746,28 +2813,28 @@
         <v>2.3</v>
       </c>
       <c r="AD13" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AE13" t="n">
         <v>8</v>
       </c>
       <c r="AF13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH13" t="n">
         <v>5</v>
       </c>
       <c r="AI13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ13" t="n">
         <v>16</v>
       </c>
       <c r="AK13" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AL13" t="n">
         <v>5</v>
@@ -2797,7 +2864,7 @@
         <v>11</v>
       </c>
       <c r="AU13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AV13" t="n">
         <v>3</v>
@@ -2812,7 +2879,7 @@
         <v>3</v>
       </c>
       <c r="AZ13" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BA13" t="n">
         <v>4</v>
@@ -2821,7 +2888,7 @@
         <v>5</v>
       </c>
       <c r="BC13" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-10-2011-12</t>
+          <t>2012-03-10</t>
         </is>
       </c>
     </row>
@@ -2928,19 +2995,19 @@
         <v>2.3</v>
       </c>
       <c r="AD14" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AE14" t="n">
         <v>6</v>
       </c>
       <c r="AF14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI14" t="n">
         <v>16</v>
@@ -2958,16 +3025,16 @@
         <v>18</v>
       </c>
       <c r="AN14" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AO14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP14" t="n">
         <v>12</v>
       </c>
       <c r="AQ14" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AR14" t="n">
         <v>14</v>
@@ -2979,13 +3046,13 @@
         <v>1</v>
       </c>
       <c r="AU14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AV14" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AW14" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AX14" t="n">
         <v>11</v>
@@ -3003,7 +3070,7 @@
         <v>19</v>
       </c>
       <c r="BC14" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-10-2011-12</t>
+          <t>2012-03-10</t>
         </is>
       </c>
     </row>
@@ -3032,34 +3099,34 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E15" t="n">
         <v>23</v>
       </c>
       <c r="F15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G15" t="n">
-        <v>0.59</v>
+        <v>0.605</v>
       </c>
       <c r="H15" t="n">
         <v>48.1</v>
       </c>
       <c r="I15" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="J15" t="n">
-        <v>81.59999999999999</v>
+        <v>81.5</v>
       </c>
       <c r="K15" t="n">
-        <v>0.448</v>
+        <v>0.449</v>
       </c>
       <c r="L15" t="n">
         <v>3.8</v>
       </c>
       <c r="M15" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="N15" t="n">
         <v>0.33</v>
@@ -3068,70 +3135,70 @@
         <v>17.4</v>
       </c>
       <c r="P15" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="Q15" t="n">
         <v>0.761</v>
       </c>
       <c r="R15" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="S15" t="n">
-        <v>29.9</v>
+        <v>30</v>
       </c>
       <c r="T15" t="n">
-        <v>41.8</v>
+        <v>41.9</v>
       </c>
       <c r="U15" t="n">
-        <v>19.6</v>
+        <v>19.4</v>
       </c>
       <c r="V15" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="W15" t="n">
         <v>10</v>
       </c>
       <c r="X15" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Y15" t="n">
         <v>5.7</v>
       </c>
       <c r="Z15" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="AA15" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AB15" t="n">
         <v>94.3</v>
       </c>
       <c r="AC15" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AE15" t="n">
         <v>8</v>
       </c>
       <c r="AF15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AG15" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AH15" t="n">
         <v>23</v>
       </c>
       <c r="AI15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ15" t="n">
         <v>13</v>
       </c>
       <c r="AK15" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AL15" t="n">
         <v>29</v>
@@ -3143,40 +3210,40 @@
         <v>20</v>
       </c>
       <c r="AO15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP15" t="n">
         <v>13</v>
       </c>
       <c r="AQ15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AS15" t="n">
         <v>22</v>
       </c>
       <c r="AT15" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AU15" t="n">
         <v>24</v>
       </c>
       <c r="AV15" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AW15" t="n">
         <v>1</v>
       </c>
       <c r="AX15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY15" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA15" t="n">
         <v>16</v>
@@ -3185,7 +3252,7 @@
         <v>18</v>
       </c>
       <c r="BC15" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-10-2011-12</t>
+          <t>2012-03-10</t>
         </is>
       </c>
     </row>
@@ -3214,85 +3281,85 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E16" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F16" t="n">
         <v>9</v>
       </c>
       <c r="G16" t="n">
-        <v>0.775</v>
+        <v>0.769</v>
       </c>
       <c r="H16" t="n">
-        <v>48.8</v>
+        <v>48.6</v>
       </c>
       <c r="I16" t="n">
-        <v>38.4</v>
+        <v>38.5</v>
       </c>
       <c r="J16" t="n">
-        <v>79.2</v>
+        <v>79.3</v>
       </c>
       <c r="K16" t="n">
         <v>0.485</v>
       </c>
       <c r="L16" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="M16" t="n">
         <v>15</v>
       </c>
       <c r="N16" t="n">
-        <v>0.394</v>
+        <v>0.398</v>
       </c>
       <c r="O16" t="n">
         <v>19.9</v>
       </c>
       <c r="P16" t="n">
-        <v>25.6</v>
+        <v>25.4</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.777</v>
+        <v>0.781</v>
       </c>
       <c r="R16" t="n">
-        <v>10.4</v>
+        <v>10.2</v>
       </c>
       <c r="S16" t="n">
-        <v>32.3</v>
+        <v>32.2</v>
       </c>
       <c r="T16" t="n">
-        <v>42.6</v>
+        <v>42.4</v>
       </c>
       <c r="U16" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="V16" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="W16" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="X16" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Y16" t="n">
         <v>4.3</v>
       </c>
       <c r="Z16" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="AA16" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="AB16" t="n">
-        <v>102.6</v>
+        <v>102.9</v>
       </c>
       <c r="AC16" t="n">
-        <v>8.9</v>
+        <v>9.1</v>
       </c>
       <c r="AD16" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AE16" t="n">
         <v>3</v>
@@ -3304,13 +3371,13 @@
         <v>3</v>
       </c>
       <c r="AH16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI16" t="n">
         <v>1</v>
       </c>
       <c r="AJ16" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK16" t="n">
         <v>1</v>
@@ -3322,7 +3389,7 @@
         <v>25</v>
       </c>
       <c r="AN16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO16" t="n">
         <v>5</v>
@@ -3334,25 +3401,25 @@
         <v>5</v>
       </c>
       <c r="AR16" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AS16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AT16" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU16" t="n">
         <v>14</v>
       </c>
       <c r="AV16" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AW16" t="n">
         <v>4</v>
       </c>
       <c r="AX16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AY16" t="n">
         <v>4</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-10-2011-12</t>
+          <t>2012-03-10</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>-2.3</v>
       </c>
       <c r="AD17" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AE17" t="n">
         <v>21</v>
@@ -3504,7 +3571,7 @@
         <v>12</v>
       </c>
       <c r="AN17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AO17" t="n">
         <v>16</v>
@@ -3528,10 +3595,10 @@
         <v>8</v>
       </c>
       <c r="AV17" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX17" t="n">
         <v>17</v>
@@ -3540,7 +3607,7 @@
         <v>17</v>
       </c>
       <c r="AZ17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA17" t="n">
         <v>19</v>
@@ -3549,7 +3616,7 @@
         <v>13</v>
       </c>
       <c r="BC17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-10-2011-12</t>
+          <t>2012-03-10</t>
         </is>
       </c>
     </row>
@@ -3578,37 +3645,37 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E18" t="n">
         <v>21</v>
       </c>
       <c r="F18" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5</v>
+        <v>0.512</v>
       </c>
       <c r="H18" t="n">
         <v>48.1</v>
       </c>
       <c r="I18" t="n">
-        <v>35.2</v>
+        <v>35.3</v>
       </c>
       <c r="J18" t="n">
         <v>81.40000000000001</v>
       </c>
       <c r="K18" t="n">
-        <v>0.433</v>
+        <v>0.434</v>
       </c>
       <c r="L18" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="M18" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="N18" t="n">
-        <v>0.334</v>
+        <v>0.337</v>
       </c>
       <c r="O18" t="n">
         <v>20.3</v>
@@ -3617,16 +3684,16 @@
         <v>26.3</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.771</v>
+        <v>0.772</v>
       </c>
       <c r="R18" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="S18" t="n">
         <v>31.8</v>
       </c>
       <c r="T18" t="n">
-        <v>44.3</v>
+        <v>44.2</v>
       </c>
       <c r="U18" t="n">
         <v>19</v>
@@ -3641,7 +3708,7 @@
         <v>4.1</v>
       </c>
       <c r="Y18" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Z18" t="n">
         <v>18.8</v>
@@ -3650,16 +3717,16 @@
         <v>22.5</v>
       </c>
       <c r="AB18" t="n">
-        <v>97.5</v>
+        <v>97.7</v>
       </c>
       <c r="AC18" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AD18" t="n">
         <v>3</v>
       </c>
       <c r="AE18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF18" t="n">
         <v>16</v>
@@ -3674,7 +3741,7 @@
         <v>21</v>
       </c>
       <c r="AJ18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK18" t="n">
         <v>22</v>
@@ -3686,7 +3753,7 @@
         <v>11</v>
       </c>
       <c r="AN18" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO18" t="n">
         <v>4</v>
@@ -3710,7 +3777,7 @@
         <v>25</v>
       </c>
       <c r="AV18" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AW18" t="n">
         <v>19</v>
@@ -3719,16 +3786,16 @@
         <v>28</v>
       </c>
       <c r="AY18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AZ18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA18" t="n">
         <v>3</v>
       </c>
       <c r="BB18" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BC18" t="n">
         <v>16</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-10-2011-12</t>
+          <t>2012-03-10</t>
         </is>
       </c>
     </row>
@@ -3760,28 +3827,28 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E19" t="n">
         <v>14</v>
       </c>
       <c r="F19" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G19" t="n">
-        <v>0.333</v>
+        <v>0.341</v>
       </c>
       <c r="H19" t="n">
         <v>48.1</v>
       </c>
       <c r="I19" t="n">
-        <v>33.6</v>
+        <v>33.4</v>
       </c>
       <c r="J19" t="n">
-        <v>79.09999999999999</v>
+        <v>79</v>
       </c>
       <c r="K19" t="n">
-        <v>0.425</v>
+        <v>0.423</v>
       </c>
       <c r="L19" t="n">
         <v>8.5</v>
@@ -3790,49 +3857,49 @@
         <v>24.3</v>
       </c>
       <c r="N19" t="n">
-        <v>0.35</v>
+        <v>0.349</v>
       </c>
       <c r="O19" t="n">
-        <v>17</v>
+        <v>17.1</v>
       </c>
       <c r="P19" t="n">
-        <v>22.1</v>
+        <v>22.3</v>
       </c>
       <c r="Q19" t="n">
         <v>0.769</v>
       </c>
       <c r="R19" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="S19" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="T19" t="n">
-        <v>39.6</v>
+        <v>39.7</v>
       </c>
       <c r="U19" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="V19" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="W19" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="X19" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Y19" t="n">
         <v>5.2</v>
       </c>
       <c r="Z19" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="AA19" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="AB19" t="n">
-        <v>92.8</v>
+        <v>92.5</v>
       </c>
       <c r="AC19" t="n">
         <v>-6.5</v>
@@ -3841,7 +3908,7 @@
         <v>3</v>
       </c>
       <c r="AE19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF19" t="n">
         <v>27</v>
@@ -3871,10 +3938,10 @@
         <v>13</v>
       </c>
       <c r="AO19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP19" t="n">
         <v>14</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>16</v>
       </c>
       <c r="AQ19" t="n">
         <v>8</v>
@@ -3892,7 +3959,7 @@
         <v>23</v>
       </c>
       <c r="AV19" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AW19" t="n">
         <v>22</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-10-2011-12</t>
+          <t>2012-03-10</t>
         </is>
       </c>
     </row>
@@ -3942,61 +4009,61 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F20" t="n">
         <v>31</v>
       </c>
       <c r="G20" t="n">
-        <v>0.244</v>
+        <v>0.225</v>
       </c>
       <c r="H20" t="n">
-        <v>48.2</v>
+        <v>48.3</v>
       </c>
       <c r="I20" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="J20" t="n">
-        <v>78.90000000000001</v>
+        <v>78.7</v>
       </c>
       <c r="K20" t="n">
-        <v>0.439</v>
+        <v>0.438</v>
       </c>
       <c r="L20" t="n">
         <v>3.9</v>
       </c>
       <c r="M20" t="n">
-        <v>12.1</v>
+        <v>12.3</v>
       </c>
       <c r="N20" t="n">
-        <v>0.318</v>
+        <v>0.316</v>
       </c>
       <c r="O20" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="P20" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.75</v>
+        <v>0.748</v>
       </c>
       <c r="R20" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="S20" t="n">
         <v>30</v>
       </c>
       <c r="T20" t="n">
-        <v>41.7</v>
+        <v>41.9</v>
       </c>
       <c r="U20" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="V20" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="W20" t="n">
         <v>7.3</v>
@@ -4005,7 +4072,7 @@
         <v>4.6</v>
       </c>
       <c r="Y20" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Z20" t="n">
         <v>20.7</v>
@@ -4014,13 +4081,13 @@
         <v>18.6</v>
       </c>
       <c r="AB20" t="n">
-        <v>88.59999999999999</v>
+        <v>88.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>-5.2</v>
+        <v>-5.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AE20" t="n">
         <v>28</v>
@@ -4029,13 +4096,13 @@
         <v>29</v>
       </c>
       <c r="AG20" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AH20" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ20" t="n">
         <v>26</v>
@@ -4047,28 +4114,28 @@
         <v>28</v>
       </c>
       <c r="AM20" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AN20" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AP20" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AQ20" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AR20" t="n">
         <v>13</v>
       </c>
       <c r="AS20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AT20" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AU20" t="n">
         <v>20</v>
@@ -4077,13 +4144,13 @@
         <v>22</v>
       </c>
       <c r="AW20" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AX20" t="n">
         <v>22</v>
       </c>
       <c r="AY20" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AZ20" t="n">
         <v>22</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-10-2011-12</t>
+          <t>2012-03-10</t>
         </is>
       </c>
     </row>
@@ -4202,10 +4269,10 @@
         <v>0.7</v>
       </c>
       <c r="AD21" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AE21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF21" t="n">
         <v>21</v>
@@ -4214,16 +4281,16 @@
         <v>20</v>
       </c>
       <c r="AH21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI21" t="n">
         <v>20</v>
       </c>
       <c r="AJ21" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK21" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL21" t="n">
         <v>10</v>
@@ -4241,7 +4308,7 @@
         <v>7</v>
       </c>
       <c r="AQ21" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR21" t="n">
         <v>17</v>
@@ -4250,10 +4317,10 @@
         <v>17</v>
       </c>
       <c r="AT21" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AU21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AV21" t="n">
         <v>29</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-10-2011-12</t>
+          <t>2012-03-10</t>
         </is>
       </c>
     </row>
@@ -4306,85 +4373,85 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E22" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F22" t="n">
         <v>9</v>
       </c>
       <c r="G22" t="n">
-        <v>0.78</v>
+        <v>0.775</v>
       </c>
       <c r="H22" t="n">
-        <v>48.2</v>
+        <v>48.3</v>
       </c>
       <c r="I22" t="n">
-        <v>36.9</v>
+        <v>36.6</v>
       </c>
       <c r="J22" t="n">
-        <v>77.90000000000001</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="K22" t="n">
-        <v>0.473</v>
+        <v>0.469</v>
       </c>
       <c r="L22" t="n">
         <v>6.9</v>
       </c>
       <c r="M22" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="N22" t="n">
-        <v>0.343</v>
+        <v>0.34</v>
       </c>
       <c r="O22" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="P22" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.795</v>
+        <v>0.796</v>
       </c>
       <c r="R22" t="n">
-        <v>10.6</v>
+        <v>10.7</v>
       </c>
       <c r="S22" t="n">
         <v>32.9</v>
       </c>
       <c r="T22" t="n">
-        <v>43.5</v>
+        <v>43.6</v>
       </c>
       <c r="U22" t="n">
-        <v>18.1</v>
+        <v>17.9</v>
       </c>
       <c r="V22" t="n">
-        <v>16.7</v>
+        <v>16.8</v>
       </c>
       <c r="W22" t="n">
         <v>7.6</v>
       </c>
       <c r="X22" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="Y22" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Z22" t="n">
         <v>20.3</v>
       </c>
       <c r="AA22" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AB22" t="n">
-        <v>102.4</v>
+        <v>102</v>
       </c>
       <c r="AC22" t="n">
-        <v>6.2</v>
+        <v>5.7</v>
       </c>
       <c r="AD22" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
@@ -4396,10 +4463,10 @@
         <v>2</v>
       </c>
       <c r="AH22" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ22" t="n">
         <v>28</v>
@@ -4426,16 +4493,16 @@
         <v>1</v>
       </c>
       <c r="AR22" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS22" t="n">
         <v>3</v>
       </c>
       <c r="AT22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AU22" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AV22" t="n">
         <v>30</v>
@@ -4450,10 +4517,10 @@
         <v>8</v>
       </c>
       <c r="AZ22" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BA22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BB22" t="n">
         <v>3</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-10-2011-12</t>
+          <t>2012-03-10</t>
         </is>
       </c>
     </row>
@@ -4566,19 +4633,19 @@
         <v>2.2</v>
       </c>
       <c r="AD23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE23" t="n">
         <v>4</v>
       </c>
       <c r="AF23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG23" t="n">
         <v>5</v>
       </c>
       <c r="AH23" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI23" t="n">
         <v>28</v>
@@ -4620,7 +4687,7 @@
         <v>17</v>
       </c>
       <c r="AV23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW23" t="n">
         <v>28</v>
@@ -4641,7 +4708,7 @@
         <v>22</v>
       </c>
       <c r="BC23" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-10-2011-12</t>
+          <t>2012-03-10</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>7.4</v>
       </c>
       <c r="AD24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE24" t="n">
         <v>6</v>
@@ -4760,7 +4827,7 @@
         <v>10</v>
       </c>
       <c r="AH24" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AI24" t="n">
         <v>5</v>
@@ -4769,7 +4836,7 @@
         <v>3</v>
       </c>
       <c r="AK24" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AL24" t="n">
         <v>22</v>
@@ -4790,7 +4857,7 @@
         <v>21</v>
       </c>
       <c r="AR24" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AS24" t="n">
         <v>2</v>
@@ -4805,7 +4872,7 @@
         <v>1</v>
       </c>
       <c r="AW24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX24" t="n">
         <v>20</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-10-2011-12</t>
+          <t>2012-03-10</t>
         </is>
       </c>
     </row>
@@ -4852,61 +4919,61 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E25" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F25" t="n">
         <v>21</v>
       </c>
       <c r="G25" t="n">
-        <v>0.475</v>
+        <v>0.462</v>
       </c>
       <c r="H25" t="n">
         <v>48</v>
       </c>
       <c r="I25" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="J25" t="n">
-        <v>81.59999999999999</v>
+        <v>81.5</v>
       </c>
       <c r="K25" t="n">
-        <v>0.449</v>
+        <v>0.448</v>
       </c>
       <c r="L25" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="M25" t="n">
-        <v>19.2</v>
+        <v>19.4</v>
       </c>
       <c r="N25" t="n">
         <v>0.335</v>
       </c>
       <c r="O25" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="P25" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.763</v>
+        <v>0.762</v>
       </c>
       <c r="R25" t="n">
-        <v>10.7</v>
+        <v>10.5</v>
       </c>
       <c r="S25" t="n">
-        <v>31.7</v>
+        <v>31.6</v>
       </c>
       <c r="T25" t="n">
-        <v>42.4</v>
+        <v>42.1</v>
       </c>
       <c r="U25" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="V25" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="W25" t="n">
         <v>6.8</v>
@@ -4921,46 +4988,46 @@
         <v>18.8</v>
       </c>
       <c r="AA25" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="AB25" t="n">
-        <v>94.90000000000001</v>
+        <v>94.8</v>
       </c>
       <c r="AC25" t="n">
-        <v>-1.7</v>
+        <v>-1.9</v>
       </c>
       <c r="AD25" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AE25" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF25" t="n">
         <v>18</v>
       </c>
-      <c r="AF25" t="n">
-        <v>16</v>
-      </c>
       <c r="AG25" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH25" t="n">
         <v>29</v>
       </c>
       <c r="AI25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ25" t="n">
         <v>14</v>
       </c>
       <c r="AK25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL25" t="n">
         <v>17</v>
       </c>
       <c r="AM25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AN25" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AO25" t="n">
         <v>28</v>
@@ -4969,10 +5036,10 @@
         <v>29</v>
       </c>
       <c r="AQ25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR25" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AS25" t="n">
         <v>11</v>
@@ -4984,19 +5051,19 @@
         <v>4</v>
       </c>
       <c r="AV25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AW25" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AX25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY25" t="n">
         <v>7</v>
       </c>
       <c r="AZ25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA25" t="n">
         <v>20</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-10-2011-12</t>
+          <t>2012-03-10</t>
         </is>
       </c>
     </row>
@@ -5034,49 +5101,49 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E26" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F26" t="n">
         <v>21</v>
       </c>
       <c r="G26" t="n">
-        <v>0.488</v>
+        <v>0.475</v>
       </c>
       <c r="H26" t="n">
         <v>48.5</v>
       </c>
       <c r="I26" t="n">
-        <v>37.1</v>
+        <v>37</v>
       </c>
       <c r="J26" t="n">
-        <v>82.5</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="K26" t="n">
-        <v>0.449</v>
+        <v>0.448</v>
       </c>
       <c r="L26" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="M26" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="N26" t="n">
-        <v>0.331</v>
+        <v>0.333</v>
       </c>
       <c r="O26" t="n">
-        <v>17.3</v>
+        <v>17.1</v>
       </c>
       <c r="P26" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.788</v>
+        <v>0.783</v>
       </c>
       <c r="R26" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="S26" t="n">
         <v>30.8</v>
@@ -5085,55 +5152,55 @@
         <v>41.8</v>
       </c>
       <c r="U26" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="V26" t="n">
-        <v>14.2</v>
+        <v>14.4</v>
       </c>
       <c r="W26" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="X26" t="n">
         <v>5.4</v>
       </c>
       <c r="Y26" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Z26" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AA26" t="n">
         <v>20.7</v>
       </c>
       <c r="AB26" t="n">
-        <v>98.09999999999999</v>
+        <v>97.8</v>
       </c>
       <c r="AC26" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="AD26" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AE26" t="n">
         <v>17</v>
       </c>
       <c r="AF26" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AG26" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AH26" t="n">
         <v>7</v>
       </c>
       <c r="AI26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AJ26" t="n">
         <v>6</v>
       </c>
       <c r="AK26" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AL26" t="n">
         <v>15</v>
@@ -5145,10 +5212,10 @@
         <v>19</v>
       </c>
       <c r="AO26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP26" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ26" t="n">
         <v>4</v>
@@ -5160,16 +5227,16 @@
         <v>16</v>
       </c>
       <c r="AT26" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AU26" t="n">
         <v>9</v>
       </c>
       <c r="AV26" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW26" t="n">
         <v>6</v>
-      </c>
-      <c r="AW26" t="n">
-        <v>7</v>
       </c>
       <c r="AX26" t="n">
         <v>12</v>
@@ -5178,10 +5245,10 @@
         <v>11</v>
       </c>
       <c r="AZ26" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BA26" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BB26" t="n">
         <v>6</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-10-2011-12</t>
+          <t>2012-03-10</t>
         </is>
       </c>
     </row>
@@ -5294,16 +5361,16 @@
         <v>-6.7</v>
       </c>
       <c r="AD27" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AE27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF27" t="n">
         <v>24</v>
       </c>
       <c r="AG27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AH27" t="n">
         <v>18</v>
@@ -5333,7 +5400,7 @@
         <v>11</v>
       </c>
       <c r="AQ27" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR27" t="n">
         <v>1</v>
@@ -5345,10 +5412,10 @@
         <v>9</v>
       </c>
       <c r="AU27" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AV27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW27" t="n">
         <v>14</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-10-2011-12</t>
+          <t>2012-03-10</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>3.7</v>
       </c>
       <c r="AD28" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AE28" t="n">
         <v>4</v>
@@ -5494,10 +5561,10 @@
         <v>4</v>
       </c>
       <c r="AJ28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AL28" t="n">
         <v>3</v>
@@ -5506,7 +5573,7 @@
         <v>8</v>
       </c>
       <c r="AN28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO28" t="n">
         <v>21</v>
@@ -5524,7 +5591,7 @@
         <v>10</v>
       </c>
       <c r="AT28" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AU28" t="n">
         <v>5</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-10-2011-12</t>
+          <t>2012-03-10</t>
         </is>
       </c>
     </row>
@@ -5580,100 +5647,100 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
       </c>
       <c r="F29" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G29" t="n">
-        <v>0.325</v>
+        <v>0.333</v>
       </c>
       <c r="H29" t="n">
         <v>48.4</v>
       </c>
       <c r="I29" t="n">
-        <v>34.1</v>
+        <v>34.2</v>
       </c>
       <c r="J29" t="n">
-        <v>78.2</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="K29" t="n">
-        <v>0.435</v>
+        <v>0.436</v>
       </c>
       <c r="L29" t="n">
         <v>5.6</v>
       </c>
       <c r="M29" t="n">
-        <v>16.7</v>
+        <v>16.6</v>
       </c>
       <c r="N29" t="n">
-        <v>0.332</v>
+        <v>0.335</v>
       </c>
       <c r="O29" t="n">
-        <v>16.3</v>
+        <v>16.1</v>
       </c>
       <c r="P29" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0.758</v>
+      </c>
+      <c r="R29" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="S29" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="T29" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="U29" t="n">
         <v>21.3</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0.763</v>
-      </c>
-      <c r="R29" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="S29" t="n">
-        <v>31.4</v>
-      </c>
-      <c r="T29" t="n">
-        <v>41.6</v>
-      </c>
-      <c r="U29" t="n">
-        <v>21.1</v>
       </c>
       <c r="V29" t="n">
         <v>15.2</v>
       </c>
       <c r="W29" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="X29" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Y29" t="n">
         <v>4.8</v>
       </c>
       <c r="Z29" t="n">
-        <v>23.8</v>
+        <v>23.9</v>
       </c>
       <c r="AA29" t="n">
-        <v>18.5</v>
+        <v>18.3</v>
       </c>
       <c r="AB29" t="n">
-        <v>89.90000000000001</v>
+        <v>90</v>
       </c>
       <c r="AC29" t="n">
-        <v>-4</v>
+        <v>-3.6</v>
       </c>
       <c r="AD29" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AE29" t="n">
         <v>27</v>
       </c>
       <c r="AF29" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AG29" t="n">
         <v>27</v>
       </c>
       <c r="AH29" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI29" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ29" t="n">
         <v>27</v>
@@ -5688,31 +5755,31 @@
         <v>19</v>
       </c>
       <c r="AN29" t="n">
+        <v>17</v>
+      </c>
+      <c r="AO29" t="n">
         <v>18</v>
-      </c>
-      <c r="AO29" t="n">
-        <v>17</v>
       </c>
       <c r="AP29" t="n">
         <v>21</v>
       </c>
       <c r="AQ29" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AR29" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AS29" t="n">
         <v>12</v>
       </c>
       <c r="AT29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AU29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AV29" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW29" t="n">
         <v>24</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-10-2011-12</t>
+          <t>2012-03-10</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E30" t="n">
         <v>19</v>
       </c>
       <c r="F30" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G30" t="n">
-        <v>0.475</v>
+        <v>0.487</v>
       </c>
       <c r="H30" t="n">
         <v>48.4</v>
@@ -5786,13 +5853,13 @@
         <v>0.452</v>
       </c>
       <c r="L30" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="M30" t="n">
-        <v>12.1</v>
+        <v>12.3</v>
       </c>
       <c r="N30" t="n">
-        <v>0.299</v>
+        <v>0.301</v>
       </c>
       <c r="O30" t="n">
         <v>18.7</v>
@@ -5801,19 +5868,19 @@
         <v>24.8</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.753</v>
+        <v>0.752</v>
       </c>
       <c r="R30" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="S30" t="n">
-        <v>29.7</v>
+        <v>30</v>
       </c>
       <c r="T30" t="n">
-        <v>42.5</v>
+        <v>42.7</v>
       </c>
       <c r="U30" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="V30" t="n">
         <v>14.1</v>
@@ -5828,7 +5895,7 @@
         <v>5.9</v>
       </c>
       <c r="Z30" t="n">
-        <v>22</v>
+        <v>22.2</v>
       </c>
       <c r="AA30" t="n">
         <v>20.7</v>
@@ -5837,40 +5904,40 @@
         <v>96.7</v>
       </c>
       <c r="AC30" t="n">
-        <v>-1.3</v>
+        <v>-0.9</v>
       </c>
       <c r="AD30" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AE30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF30" t="n">
         <v>16</v>
       </c>
       <c r="AG30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH30" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI30" t="n">
         <v>6</v>
       </c>
       <c r="AJ30" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK30" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL30" t="n">
         <v>30</v>
       </c>
       <c r="AM30" t="n">
+        <v>28</v>
+      </c>
+      <c r="AN30" t="n">
         <v>29</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>30</v>
       </c>
       <c r="AO30" t="n">
         <v>7</v>
@@ -5885,34 +5952,34 @@
         <v>5</v>
       </c>
       <c r="AS30" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AT30" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU30" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AV30" t="n">
         <v>5</v>
       </c>
       <c r="AW30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY30" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ30" t="n">
         <v>28</v>
       </c>
       <c r="BA30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BB30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BC30" t="n">
         <v>19</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-10-2011-12</t>
+          <t>2012-03-10</t>
         </is>
       </c>
     </row>
@@ -5944,28 +6011,28 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E31" t="n">
         <v>9</v>
       </c>
       <c r="F31" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G31" t="n">
-        <v>0.231</v>
+        <v>0.237</v>
       </c>
       <c r="H31" t="n">
         <v>48.1</v>
       </c>
       <c r="I31" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="J31" t="n">
-        <v>83.8</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="K31" t="n">
-        <v>0.433</v>
+        <v>0.432</v>
       </c>
       <c r="L31" t="n">
         <v>5.1</v>
@@ -5980,10 +6047,10 @@
         <v>16</v>
       </c>
       <c r="P31" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.717</v>
+        <v>0.72</v>
       </c>
       <c r="R31" t="n">
         <v>12.2</v>
@@ -5992,19 +6059,19 @@
         <v>29.8</v>
       </c>
       <c r="T31" t="n">
-        <v>42</v>
+        <v>42.1</v>
       </c>
       <c r="U31" t="n">
         <v>18.3</v>
       </c>
       <c r="V31" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="W31" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X31" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="Y31" t="n">
         <v>4.9</v>
@@ -6016,22 +6083,22 @@
         <v>18.8</v>
       </c>
       <c r="AB31" t="n">
-        <v>93.59999999999999</v>
+        <v>93.5</v>
       </c>
       <c r="AC31" t="n">
-        <v>-8.4</v>
+        <v>-8.300000000000001</v>
       </c>
       <c r="AD31" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AE31" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AF31" t="n">
         <v>28</v>
       </c>
       <c r="AG31" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AH31" t="n">
         <v>23</v>
@@ -6052,40 +6119,40 @@
         <v>21</v>
       </c>
       <c r="AN31" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO31" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AP31" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AQ31" t="n">
         <v>27</v>
       </c>
       <c r="AR31" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AS31" t="n">
         <v>24</v>
       </c>
       <c r="AT31" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AU31" t="n">
         <v>27</v>
       </c>
       <c r="AV31" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AW31" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AX31" t="n">
         <v>2</v>
       </c>
       <c r="AY31" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ31" t="n">
         <v>27</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-10-2011-12</t>
+          <t>2012-03-10</t>
         </is>
       </c>
     </row>
